--- a/Parameter_URI(재민).xlsx
+++ b/Parameter_URI(재민).xlsx
@@ -16,7 +16,7 @@
     <sheet name="멤버" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">URI!$B$2:$N$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">URI!$B$2:$N$72</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">공지사항!$B$2:$K$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">멤버!$B$2:$K$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">방소개!$B$2:$K$67</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="145">
   <si>
     <t>회원가입</t>
   </si>
@@ -412,7 +412,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/article.jsp</t>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글수정폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방보기로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/review.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/review.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article_c.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article_c_ok.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article_u.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article_u_ok.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article_d.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/review_form.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/review_u.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰폼에 값 기입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/review_form_c.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/review_form_u.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/review_d.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰보기/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼비우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 본 방보기로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/review_list.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방선택(제목선택)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,143 +552,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>article.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글쓰기폼</t>
+    <t>방리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글저장</t>
+    <t>방리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방선택</t>
+    <t>/index.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글수정폼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>→</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방보기로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/review.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/review.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/article_c.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/article_c_ok.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/article_u.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/article_u_ok.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/article_d.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰폼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/review_form.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/review_u.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰폼에 값 기입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/review_form_c.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/review_form_u.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/review_d.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰보기/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폼초기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다시입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폼비우기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최근 본 방보기로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/review_list.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/review_list.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/review_form.jsp</t>
+    <t>/index.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1344,27 +1356,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1412,6 +1403,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1719,7 +1731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1730,10 +1742,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N74"/>
+  <dimension ref="B1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1751,23 +1763,23 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="63"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="79"/>
     </row>
     <row r="5" spans="2:14" ht="17.25" thickTop="1">
       <c r="B5" s="14" t="s">
@@ -2127,23 +2139,23 @@
       <c r="N21" s="9"/>
     </row>
     <row r="22" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="68"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="70"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="63"/>
     </row>
     <row r="23" spans="2:14" ht="17.25" thickTop="1">
-      <c r="B23" s="74"/>
-      <c r="C23" s="75" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="68" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -2159,7 +2171,7 @@
         <v>100</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -2183,7 +2195,7 @@
         <v>100</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -2196,7 +2208,7 @@
         <v>42</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
@@ -2207,7 +2219,7 @@
         <v>100</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -2231,7 +2243,7 @@
         <v>100</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -2245,7 +2257,7 @@
         <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="7" t="s">
@@ -2270,7 +2282,7 @@
         <v>42</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="7" t="s">
@@ -2280,7 +2292,7 @@
         <v>100</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2296,7 +2308,7 @@
         <v>42</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>102</v>
@@ -2305,14 +2317,14 @@
         <v>100</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K29" s="7"/>
-      <c r="L29" s="66" t="s">
-        <v>113</v>
+      <c r="L29" s="59" t="s">
+        <v>111</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N29" s="9"/>
     </row>
@@ -2325,7 +2337,7 @@
         <v>42</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>102</v>
@@ -2334,14 +2346,14 @@
         <v>100</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K30" s="7"/>
-      <c r="L30" s="66" t="s">
-        <v>113</v>
+      <c r="L30" s="59" t="s">
+        <v>111</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N30" s="9"/>
     </row>
@@ -2351,10 +2363,10 @@
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>102</v>
@@ -2366,11 +2378,11 @@
         <v>103</v>
       </c>
       <c r="K31" s="7"/>
-      <c r="L31" s="66" t="s">
-        <v>113</v>
+      <c r="L31" s="59" t="s">
+        <v>111</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N31" s="9"/>
     </row>
@@ -2382,7 +2394,7 @@
         <v>42</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="7" t="s">
@@ -2392,7 +2404,7 @@
         <v>100</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -2408,7 +2420,7 @@
         <v>42</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>102</v>
@@ -2417,14 +2429,14 @@
         <v>100</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K33" s="7"/>
-      <c r="L33" s="66" t="s">
-        <v>113</v>
+      <c r="L33" s="59" t="s">
+        <v>111</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N33" s="9"/>
     </row>
@@ -2437,7 +2449,7 @@
         <v>42</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>102</v>
@@ -2446,14 +2458,14 @@
         <v>100</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K34" s="7"/>
-      <c r="L34" s="66" t="s">
-        <v>113</v>
+      <c r="L34" s="59" t="s">
+        <v>111</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N34" s="9"/>
     </row>
@@ -2463,10 +2475,10 @@
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>102</v>
@@ -2478,11 +2490,11 @@
         <v>103</v>
       </c>
       <c r="K35" s="7"/>
-      <c r="L35" s="66" t="s">
-        <v>113</v>
+      <c r="L35" s="59" t="s">
+        <v>111</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N35" s="9"/>
     </row>
@@ -2504,14 +2516,14 @@
         <v>100</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K36" s="7"/>
-      <c r="L36" s="66" t="s">
-        <v>113</v>
+      <c r="L36" s="59" t="s">
+        <v>111</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N36" s="9"/>
     </row>
@@ -2533,7 +2545,7 @@
         <v>100</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -2557,7 +2569,7 @@
         <v>100</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -2571,7 +2583,7 @@
         <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="7" t="s">
@@ -2581,7 +2593,7 @@
         <v>100</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -2593,22 +2605,28 @@
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
+      <c r="F40" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="H40" s="7" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="N40" s="9"/>
     </row>
     <row r="41" spans="2:14">
@@ -2620,7 +2638,7 @@
         <v>42</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>102</v>
@@ -2629,14 +2647,14 @@
         <v>100</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K41" s="7"/>
-      <c r="L41" s="66" t="s">
-        <v>113</v>
+      <c r="L41" s="59" t="s">
+        <v>111</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="N41" s="9"/>
     </row>
@@ -2644,13 +2662,13 @@
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17" t="s">
+      <c r="E42" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>127</v>
-      </c>
+      <c r="F42" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="8"/>
       <c r="H42" s="7" t="s">
         <v>102</v>
       </c>
@@ -2658,28 +2676,24 @@
         <v>100</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="K42" s="7"/>
-      <c r="L42" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>123</v>
-      </c>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
       <c r="N42" s="9"/>
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="17"/>
+      <c r="F43" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" s="8"/>
+      <c r="G43" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="H43" s="7" t="s">
         <v>102</v>
       </c>
@@ -2687,146 +2701,128 @@
         <v>100</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="9"/>
+      <c r="L43" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="17"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
+      <c r="F44" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="H44" s="7" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B45" s="69"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="H45" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="I45" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="2:14">
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="N45" s="9" t="s">
+      <c r="J45" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="K45" s="70"/>
+      <c r="L45" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="M45" s="70" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="46" spans="2:14">
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B47" s="76"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="H47" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="I47" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="J47" s="77" t="s">
-        <v>124</v>
-      </c>
-      <c r="K47" s="77"/>
-      <c r="L47" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="M47" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="N47" s="81"/>
-    </row>
-    <row r="48" spans="2:14" ht="17.25" thickTop="1">
-      <c r="B48" s="71"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="23"/>
+      <c r="N45" s="74"/>
+    </row>
+    <row r="46" spans="2:14" ht="17.25" thickTop="1">
+      <c r="B46" s="64"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="23"/>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="9"/>
     </row>
     <row r="49" spans="2:14">
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="17"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="17"/>
       <c r="F49" s="7"/>
       <c r="G49" s="8"/>
@@ -2915,12 +2911,18 @@
     </row>
     <row r="55" spans="2:14">
       <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="17"/>
+      <c r="C55" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -2931,8 +2933,12 @@
     <row r="56" spans="2:14">
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="17"/>
+      <c r="D56" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
       <c r="H56" s="7"/>
@@ -2945,17 +2951,17 @@
     </row>
     <row r="57" spans="2:14">
       <c r="B57" s="6"/>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="G57" s="8"/>
       <c r="H57" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -2967,13 +2973,13 @@
     <row r="58" spans="2:14">
       <c r="B58" s="6"/>
       <c r="C58" s="7"/>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="7"/>
+      <c r="E58" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="7"/>
+      <c r="F58" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="G58" s="8"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -2985,17 +2991,17 @@
     </row>
     <row r="59" spans="2:14">
       <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="17" t="s">
+      <c r="C59" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -3007,15 +3013,17 @@
     <row r="60" spans="2:14">
       <c r="B60" s="6"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="17" t="s">
+      <c r="D60" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="E60" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="7"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="7"/>
+      <c r="H60" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -3025,17 +3033,17 @@
     </row>
     <row r="61" spans="2:14">
       <c r="B61" s="6"/>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="7"/>
+      <c r="D61" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -3046,17 +3054,17 @@
     </row>
     <row r="62" spans="2:14">
       <c r="B62" s="6"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="17" t="s">
+      <c r="C62" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="D62" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -3072,13 +3080,11 @@
         <v>42</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -3088,18 +3094,16 @@
     </row>
     <row r="64" spans="2:14">
       <c r="B64" s="6"/>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="7"/>
+      <c r="D64" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="7"/>
+      <c r="E64" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="F64" s="7"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -3110,15 +3114,17 @@
     <row r="65" spans="2:14">
       <c r="B65" s="6"/>
       <c r="C65" s="7"/>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="7"/>
+      <c r="E65" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" s="7"/>
+      <c r="F65" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="G65" s="8"/>
-      <c r="H65" s="7"/>
+      <c r="H65" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -3129,15 +3135,17 @@
     <row r="66" spans="2:14">
       <c r="B66" s="6"/>
       <c r="C66" s="7"/>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="7"/>
+      <c r="E66" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="7"/>
+      <c r="F66" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="G66" s="8"/>
-      <c r="H66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -3153,11 +3161,11 @@
         <v>42</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -3170,16 +3178,14 @@
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="7"/>
+      <c r="F68" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -3191,18 +3197,20 @@
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="7"/>
+      <c r="F69" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F69" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G69" s="8"/>
+      <c r="G69" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="H69" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
+      <c r="J69" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -3217,9 +3225,11 @@
         <v>42</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -3236,82 +3246,38 @@
         <v>42</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I71" s="7"/>
-      <c r="J71" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" spans="2:14">
-      <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="17" t="s">
+    <row r="72" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B72" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="9"/>
-    </row>
-    <row r="73" spans="2:14">
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="9"/>
-    </row>
-    <row r="74" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B74" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="11" t="s">
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="13"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3332,7 +3298,7 @@
   <dimension ref="B1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3354,26 +3320,26 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1">
       <c r="B5" s="14"/>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="4"/>
       <c r="G5" s="29" t="s">
         <v>50</v>
@@ -3423,11 +3389,11 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="24"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="25"/>
       <c r="G8" s="32" t="s">
         <v>49</v>
@@ -3479,11 +3445,11 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="24"/>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="25"/>
       <c r="G11" s="32" t="s">
         <v>49</v>
@@ -3533,11 +3499,11 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="24"/>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="25"/>
       <c r="G14" s="32" t="s">
         <v>49</v>
@@ -3585,11 +3551,11 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="24"/>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="25"/>
       <c r="G17" s="32" t="s">
         <v>49</v>
@@ -3639,11 +3605,11 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="24"/>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="25"/>
       <c r="G20" s="32" t="s">
         <v>49</v>
@@ -3693,11 +3659,11 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="24"/>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="25"/>
       <c r="G23" s="32" t="s">
         <v>49</v>
@@ -3745,11 +3711,11 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="24"/>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="25"/>
       <c r="G26" s="32" t="s">
         <v>49</v>
@@ -3799,11 +3765,11 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="24"/>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="25"/>
       <c r="G29" s="32" t="s">
         <v>49</v>
@@ -3849,9 +3815,9 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="24"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="25"/>
       <c r="G32" s="32" t="s">
         <v>49</v>
@@ -3893,9 +3859,9 @@
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="24"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
       <c r="F35" s="25"/>
       <c r="G35" s="32" t="s">
         <v>49</v>
@@ -3937,9 +3903,9 @@
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="24"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
       <c r="F38" s="25"/>
       <c r="G38" s="32" t="s">
         <v>49</v>
@@ -3981,9 +3947,9 @@
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="24"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
       <c r="F41" s="25"/>
       <c r="G41" s="32" t="s">
         <v>49</v>
@@ -4025,9 +3991,9 @@
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="24"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="25"/>
       <c r="G44" s="32" t="s">
         <v>49</v>
@@ -4069,9 +4035,9 @@
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="24"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
       <c r="F47" s="25"/>
       <c r="G47" s="32" t="s">
         <v>49</v>
@@ -4113,9 +4079,9 @@
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="24"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
       <c r="F50" s="25"/>
       <c r="G50" s="32" t="s">
         <v>49</v>
@@ -4157,9 +4123,9 @@
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="24"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
       <c r="F53" s="25"/>
       <c r="G53" s="32" t="s">
         <v>49</v>
@@ -4201,9 +4167,9 @@
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="24"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
       <c r="F56" s="25"/>
       <c r="G56" s="32" t="s">
         <v>49</v>
@@ -4245,9 +4211,9 @@
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="24"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
       <c r="F59" s="25"/>
       <c r="G59" s="32" t="s">
         <v>49</v>
@@ -4289,9 +4255,9 @@
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="24"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
       <c r="F62" s="25"/>
       <c r="G62" s="32" t="s">
         <v>49</v>
@@ -4333,9 +4299,9 @@
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="24"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
       <c r="F65" s="25"/>
       <c r="G65" s="32" t="s">
         <v>49</v>
@@ -4377,19 +4343,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C26:E26"/>
     <mergeCell ref="C59:E59"/>
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="C32:E32"/>
@@ -4400,6 +4353,19 @@
     <mergeCell ref="C62:E62"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -4415,7 +4381,7 @@
   <dimension ref="B1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4437,24 +4403,26 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1">
       <c r="B5" s="14"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="C5" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="4"/>
       <c r="G5" s="29" t="s">
         <v>56</v>
@@ -4466,9 +4434,15 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="16"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="39"/>
+      <c r="C6" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>139</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="30" t="s">
         <v>51</v>
@@ -4480,9 +4454,13 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="19"/>
-      <c r="C7" s="55"/>
+      <c r="C7" s="55" t="s">
+        <v>140</v>
+      </c>
       <c r="D7" s="37"/>
-      <c r="E7" s="55"/>
+      <c r="E7" s="55" t="s">
+        <v>140</v>
+      </c>
       <c r="F7" s="20"/>
       <c r="G7" s="31" t="s">
         <v>57</v>
@@ -4494,9 +4472,9 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="24"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="25"/>
       <c r="G8" s="32" t="s">
         <v>49</v>
@@ -4508,7 +4486,9 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="16"/>
-      <c r="C9" s="39"/>
+      <c r="C9" s="39" t="s">
+        <v>142</v>
+      </c>
       <c r="D9" s="15"/>
       <c r="E9" s="39"/>
       <c r="F9" s="8"/>
@@ -4536,9 +4516,9 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="24"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="25"/>
       <c r="G11" s="32" t="s">
         <v>49</v>
@@ -4578,9 +4558,9 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="24"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="25"/>
       <c r="G14" s="32" t="s">
         <v>49</v>
@@ -4620,9 +4600,9 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="24"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="25"/>
       <c r="G17" s="32" t="s">
         <v>49</v>
@@ -4662,9 +4642,9 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="24"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="25"/>
       <c r="G20" s="32" t="s">
         <v>49</v>
@@ -4704,9 +4684,9 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="24"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="25"/>
       <c r="G23" s="32" t="s">
         <v>49</v>
@@ -4746,9 +4726,9 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="24"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="25"/>
       <c r="G26" s="32" t="s">
         <v>49</v>
@@ -4788,9 +4768,9 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="24"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="25"/>
       <c r="G29" s="32" t="s">
         <v>49</v>
@@ -4830,9 +4810,9 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="24"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="25"/>
       <c r="G32" s="32" t="s">
         <v>49</v>
@@ -4874,9 +4854,9 @@
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="24"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
       <c r="F35" s="25"/>
       <c r="G35" s="32" t="s">
         <v>49</v>
@@ -4918,9 +4898,9 @@
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="24"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
       <c r="F38" s="25"/>
       <c r="G38" s="32" t="s">
         <v>49</v>
@@ -4962,9 +4942,9 @@
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="24"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
       <c r="F41" s="25"/>
       <c r="G41" s="32" t="s">
         <v>49</v>
@@ -5006,9 +4986,9 @@
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="24"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="25"/>
       <c r="G44" s="32" t="s">
         <v>49</v>
@@ -5050,9 +5030,9 @@
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="24"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
       <c r="F47" s="25"/>
       <c r="G47" s="32" t="s">
         <v>49</v>
@@ -5094,9 +5074,9 @@
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="24"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
       <c r="F50" s="25"/>
       <c r="G50" s="32" t="s">
         <v>49</v>
@@ -5138,9 +5118,9 @@
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="24"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
       <c r="F53" s="25"/>
       <c r="G53" s="32" t="s">
         <v>49</v>
@@ -5182,9 +5162,9 @@
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="24"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
       <c r="F56" s="25"/>
       <c r="G56" s="32" t="s">
         <v>49</v>
@@ -5226,9 +5206,9 @@
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="24"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
       <c r="F59" s="25"/>
       <c r="G59" s="32" t="s">
         <v>49</v>
@@ -5270,9 +5250,9 @@
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="24"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
       <c r="F62" s="25"/>
       <c r="G62" s="32" t="s">
         <v>49</v>
@@ -5314,9 +5294,9 @@
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="24"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
       <c r="F65" s="25"/>
       <c r="G65" s="32" t="s">
         <v>49</v>
@@ -5358,12 +5338,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C65:E65"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C20:E20"/>
@@ -5376,11 +5355,12 @@
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -5418,26 +5398,26 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1">
       <c r="B5" s="14"/>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="4"/>
       <c r="G5" s="29" t="s">
         <v>50</v>
@@ -5487,11 +5467,11 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="24"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="25"/>
       <c r="G8" s="32" t="s">
         <v>49</v>
@@ -5543,11 +5523,11 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="24"/>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="25"/>
       <c r="G11" s="32" t="s">
         <v>49</v>
@@ -5597,11 +5577,11 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="24"/>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="25"/>
       <c r="G14" s="32" t="s">
         <v>49</v>
@@ -5649,11 +5629,11 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="24"/>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="25"/>
       <c r="G17" s="32" t="s">
         <v>49</v>
@@ -5703,11 +5683,11 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="24"/>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="25"/>
       <c r="G20" s="32" t="s">
         <v>49</v>
@@ -5757,11 +5737,11 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="24"/>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="25"/>
       <c r="G23" s="32" t="s">
         <v>49</v>
@@ -5809,11 +5789,11 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="24"/>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="25"/>
       <c r="G26" s="32" t="s">
         <v>49</v>
@@ -5863,11 +5843,11 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="24"/>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="25"/>
       <c r="G29" s="32" t="s">
         <v>49</v>
@@ -5913,9 +5893,9 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="24"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="25"/>
       <c r="G32" s="32" t="s">
         <v>49</v>
@@ -5957,9 +5937,9 @@
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="24"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
       <c r="F35" s="25"/>
       <c r="G35" s="32" t="s">
         <v>49</v>
@@ -6001,9 +5981,9 @@
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="24"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
       <c r="F38" s="25"/>
       <c r="G38" s="32" t="s">
         <v>49</v>
@@ -6045,9 +6025,9 @@
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="24"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
       <c r="F41" s="25"/>
       <c r="G41" s="32" t="s">
         <v>49</v>
@@ -6089,9 +6069,9 @@
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="24"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="25"/>
       <c r="G44" s="32" t="s">
         <v>49</v>
@@ -6133,9 +6113,9 @@
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="24"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
       <c r="F47" s="25"/>
       <c r="G47" s="32" t="s">
         <v>49</v>
@@ -6177,9 +6157,9 @@
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="24"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
       <c r="F50" s="25"/>
       <c r="G50" s="32" t="s">
         <v>49</v>
@@ -6221,9 +6201,9 @@
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="24"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
       <c r="F53" s="25"/>
       <c r="G53" s="32" t="s">
         <v>49</v>
@@ -6265,9 +6245,9 @@
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="24"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
       <c r="F56" s="25"/>
       <c r="G56" s="32" t="s">
         <v>49</v>
@@ -6309,9 +6289,9 @@
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="24"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
       <c r="F59" s="25"/>
       <c r="G59" s="32" t="s">
         <v>49</v>
@@ -6353,9 +6333,9 @@
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="24"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
       <c r="F62" s="25"/>
       <c r="G62" s="32" t="s">
         <v>49</v>
@@ -6397,9 +6377,9 @@
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="24"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
       <c r="F65" s="25"/>
       <c r="G65" s="32" t="s">
         <v>49</v>
@@ -6441,12 +6421,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C65:E65"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C20:E20"/>
@@ -6459,11 +6438,12 @@
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -6501,26 +6481,26 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1">
       <c r="B5" s="14"/>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="4"/>
       <c r="G5" s="29" t="s">
         <v>50</v>
@@ -6570,11 +6550,11 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="24"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="25"/>
       <c r="G8" s="32" t="s">
         <v>49</v>
@@ -6626,11 +6606,11 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="24"/>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="25"/>
       <c r="G11" s="32" t="s">
         <v>49</v>
@@ -6680,11 +6660,11 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="24"/>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="25"/>
       <c r="G14" s="32" t="s">
         <v>49</v>
@@ -6732,11 +6712,11 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="24"/>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="25"/>
       <c r="G17" s="32" t="s">
         <v>49</v>
@@ -6786,11 +6766,11 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="24"/>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="25"/>
       <c r="G20" s="32" t="s">
         <v>49</v>
@@ -6840,11 +6820,11 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="24"/>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="25"/>
       <c r="G23" s="32" t="s">
         <v>49</v>
@@ -6892,11 +6872,11 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="24"/>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="25"/>
       <c r="G26" s="32" t="s">
         <v>49</v>
@@ -6946,11 +6926,11 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="24"/>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="25"/>
       <c r="G29" s="32" t="s">
         <v>49</v>
@@ -6996,9 +6976,9 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="24"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="25"/>
       <c r="G32" s="32" t="s">
         <v>49</v>
@@ -7040,9 +7020,9 @@
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="24"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
       <c r="F35" s="25"/>
       <c r="G35" s="32" t="s">
         <v>49</v>
@@ -7084,9 +7064,9 @@
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="24"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
       <c r="F38" s="25"/>
       <c r="G38" s="32" t="s">
         <v>49</v>
@@ -7128,9 +7108,9 @@
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="24"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
       <c r="F41" s="25"/>
       <c r="G41" s="32" t="s">
         <v>49</v>
@@ -7172,9 +7152,9 @@
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="24"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="25"/>
       <c r="G44" s="32" t="s">
         <v>49</v>
@@ -7216,9 +7196,9 @@
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="24"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
       <c r="F47" s="25"/>
       <c r="G47" s="32" t="s">
         <v>49</v>
@@ -7260,9 +7240,9 @@
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="24"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
       <c r="F50" s="25"/>
       <c r="G50" s="32" t="s">
         <v>49</v>
@@ -7304,9 +7284,9 @@
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="24"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
       <c r="F53" s="25"/>
       <c r="G53" s="32" t="s">
         <v>49</v>
@@ -7348,9 +7328,9 @@
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="24"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
       <c r="F56" s="25"/>
       <c r="G56" s="32" t="s">
         <v>49</v>
@@ -7392,9 +7372,9 @@
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="24"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
       <c r="F59" s="25"/>
       <c r="G59" s="32" t="s">
         <v>49</v>
@@ -7436,9 +7416,9 @@
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="24"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
       <c r="F62" s="25"/>
       <c r="G62" s="32" t="s">
         <v>49</v>
@@ -7480,9 +7460,9 @@
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="24"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
       <c r="F65" s="25"/>
       <c r="G65" s="32" t="s">
         <v>49</v>
@@ -7524,12 +7504,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C65:E65"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C20:E20"/>
@@ -7542,11 +7521,12 @@
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -7584,26 +7564,26 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1">
       <c r="B5" s="14"/>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="4"/>
       <c r="G5" s="29" t="s">
         <v>50</v>
@@ -7653,11 +7633,11 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="24"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="25"/>
       <c r="G8" s="32" t="s">
         <v>49</v>
@@ -7709,11 +7689,11 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="24"/>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="25"/>
       <c r="G11" s="32" t="s">
         <v>49</v>
@@ -7763,11 +7743,11 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="24"/>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="25"/>
       <c r="G14" s="32" t="s">
         <v>49</v>
@@ -7815,11 +7795,11 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="24"/>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="25"/>
       <c r="G17" s="32" t="s">
         <v>49</v>
@@ -7869,11 +7849,11 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="24"/>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="25"/>
       <c r="G20" s="32" t="s">
         <v>49</v>
@@ -7923,11 +7903,11 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="24"/>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="25"/>
       <c r="G23" s="32" t="s">
         <v>49</v>
@@ -7975,11 +7955,11 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="24"/>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="25"/>
       <c r="G26" s="32" t="s">
         <v>49</v>
@@ -8029,11 +8009,11 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="24"/>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="25"/>
       <c r="G29" s="32" t="s">
         <v>49</v>
@@ -8079,9 +8059,9 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="24"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="25"/>
       <c r="G32" s="32" t="s">
         <v>49</v>
@@ -8123,9 +8103,9 @@
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="24"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
       <c r="F35" s="25"/>
       <c r="G35" s="32" t="s">
         <v>49</v>
@@ -8167,9 +8147,9 @@
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="24"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
       <c r="F38" s="25"/>
       <c r="G38" s="32" t="s">
         <v>49</v>
@@ -8211,9 +8191,9 @@
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="24"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
       <c r="F41" s="25"/>
       <c r="G41" s="32" t="s">
         <v>49</v>
@@ -8255,9 +8235,9 @@
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="24"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="25"/>
       <c r="G44" s="32" t="s">
         <v>49</v>
@@ -8299,9 +8279,9 @@
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="24"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
       <c r="F47" s="25"/>
       <c r="G47" s="32" t="s">
         <v>49</v>
@@ -8343,9 +8323,9 @@
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="24"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
       <c r="F50" s="25"/>
       <c r="G50" s="32" t="s">
         <v>49</v>
@@ -8387,9 +8367,9 @@
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="24"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
       <c r="F53" s="25"/>
       <c r="G53" s="32" t="s">
         <v>49</v>
@@ -8431,9 +8411,9 @@
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="24"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
       <c r="F56" s="25"/>
       <c r="G56" s="32" t="s">
         <v>49</v>
@@ -8475,9 +8455,9 @@
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="24"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
       <c r="F59" s="25"/>
       <c r="G59" s="32" t="s">
         <v>49</v>
@@ -8519,9 +8499,9 @@
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="24"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
       <c r="F62" s="25"/>
       <c r="G62" s="32" t="s">
         <v>49</v>
@@ -8563,9 +8543,9 @@
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="24"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
       <c r="F65" s="25"/>
       <c r="G65" s="32" t="s">
         <v>49</v>
@@ -8607,12 +8587,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C65:E65"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C20:E20"/>
@@ -8625,11 +8604,12 @@
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -8667,26 +8647,26 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickTop="1">
       <c r="B5" s="14"/>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="4"/>
       <c r="G5" s="29" t="s">
         <v>50</v>
@@ -8736,11 +8716,11 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="24"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="25"/>
       <c r="G8" s="32" t="s">
         <v>49</v>
@@ -8792,11 +8772,11 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="24"/>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="25"/>
       <c r="G11" s="32" t="s">
         <v>49</v>
@@ -8846,11 +8826,11 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="24"/>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="25"/>
       <c r="G14" s="32" t="s">
         <v>49</v>
@@ -8898,11 +8878,11 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="24"/>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="25"/>
       <c r="G17" s="32" t="s">
         <v>49</v>
@@ -8952,11 +8932,11 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="24"/>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="25"/>
       <c r="G20" s="32" t="s">
         <v>49</v>
@@ -9006,11 +8986,11 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="24"/>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="25"/>
       <c r="G23" s="32" t="s">
         <v>49</v>
@@ -9058,11 +9038,11 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="24"/>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="25"/>
       <c r="G26" s="32" t="s">
         <v>49</v>
@@ -9112,11 +9092,11 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="24"/>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="25"/>
       <c r="G29" s="32" t="s">
         <v>49</v>
@@ -9162,9 +9142,9 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="24"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="25"/>
       <c r="G32" s="32" t="s">
         <v>49</v>
@@ -9206,9 +9186,9 @@
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="24"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
       <c r="F35" s="25"/>
       <c r="G35" s="32" t="s">
         <v>49</v>
@@ -9250,9 +9230,9 @@
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="24"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
       <c r="F38" s="25"/>
       <c r="G38" s="32" t="s">
         <v>49</v>
@@ -9294,9 +9274,9 @@
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="24"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
       <c r="F41" s="25"/>
       <c r="G41" s="32" t="s">
         <v>49</v>
@@ -9338,9 +9318,9 @@
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="24"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="25"/>
       <c r="G44" s="32" t="s">
         <v>49</v>
@@ -9382,9 +9362,9 @@
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="24"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
       <c r="F47" s="25"/>
       <c r="G47" s="32" t="s">
         <v>49</v>
@@ -9426,9 +9406,9 @@
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="24"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
       <c r="F50" s="25"/>
       <c r="G50" s="32" t="s">
         <v>49</v>
@@ -9470,9 +9450,9 @@
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="24"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
       <c r="F53" s="25"/>
       <c r="G53" s="32" t="s">
         <v>49</v>
@@ -9514,9 +9494,9 @@
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="24"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
       <c r="F56" s="25"/>
       <c r="G56" s="32" t="s">
         <v>49</v>
@@ -9558,9 +9538,9 @@
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="24"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
       <c r="F59" s="25"/>
       <c r="G59" s="32" t="s">
         <v>49</v>
@@ -9602,9 +9582,9 @@
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="24"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
       <c r="F62" s="25"/>
       <c r="G62" s="32" t="s">
         <v>49</v>
@@ -9646,9 +9626,9 @@
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="24"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
       <c r="F65" s="25"/>
       <c r="G65" s="32" t="s">
         <v>49</v>
@@ -9690,12 +9670,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C65:E65"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C20:E20"/>
@@ -9708,11 +9687,12 @@
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
